--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H2">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I2">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J2">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N2">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q2">
-        <v>2.033488698712653</v>
+        <v>2.061921939469778</v>
       </c>
       <c r="R2">
-        <v>2.033488698712653</v>
+        <v>18.557297455228</v>
       </c>
       <c r="S2">
-        <v>0.00388495057472425</v>
+        <v>0.002361118716213625</v>
       </c>
       <c r="T2">
-        <v>0.00388495057472425</v>
+        <v>0.002361118716213625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H3">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I3">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J3">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N3">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q3">
-        <v>10.07656878777083</v>
+        <v>9.586829966288443</v>
       </c>
       <c r="R3">
-        <v>10.07656878777083</v>
+        <v>86.28146969659601</v>
       </c>
       <c r="S3">
-        <v>0.01925113807029349</v>
+        <v>0.0109779343384755</v>
       </c>
       <c r="T3">
-        <v>0.01925113807029349</v>
+        <v>0.0109779343384755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H4">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I4">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J4">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N4">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O4">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P4">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q4">
-        <v>20.67670353194147</v>
+        <v>20.52472510041155</v>
       </c>
       <c r="R4">
-        <v>20.67670353194147</v>
+        <v>184.722525903704</v>
       </c>
       <c r="S4">
-        <v>0.03950254128320085</v>
+        <v>0.02350298120024035</v>
       </c>
       <c r="T4">
-        <v>0.03950254128320085</v>
+        <v>0.02350298120024035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H5">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I5">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J5">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N5">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q5">
-        <v>23.38336073327592</v>
+        <v>22.18170743597422</v>
       </c>
       <c r="R5">
-        <v>23.38336073327592</v>
+        <v>199.635366923768</v>
       </c>
       <c r="S5">
-        <v>0.04467357048860666</v>
+        <v>0.02540040123833278</v>
       </c>
       <c r="T5">
-        <v>0.04467357048860666</v>
+        <v>0.02540040123833279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H6">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I6">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J6">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N6">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q6">
-        <v>4.393149186103987</v>
+        <v>4.157037280411556</v>
       </c>
       <c r="R6">
-        <v>4.393149186103987</v>
+        <v>37.413335523704</v>
       </c>
       <c r="S6">
-        <v>0.008393047606415918</v>
+        <v>0.004760247388075953</v>
       </c>
       <c r="T6">
-        <v>0.008393047606415918</v>
+        <v>0.004760247388075953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H7">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I7">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J7">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N7">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q7">
-        <v>3.15810181517447</v>
+        <v>3.101530902286667</v>
       </c>
       <c r="R7">
-        <v>3.15810181517447</v>
+        <v>27.91377812058</v>
       </c>
       <c r="S7">
-        <v>0.006033507572314994</v>
+        <v>0.003551580941122877</v>
       </c>
       <c r="T7">
-        <v>0.006033507572314994</v>
+        <v>0.003551580941122877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H8">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I8">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J8">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N8">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q8">
-        <v>1.546600439735852</v>
+        <v>2.302930831632667</v>
       </c>
       <c r="R8">
-        <v>1.546600439735852</v>
+        <v>20.726377484694</v>
       </c>
       <c r="S8">
-        <v>0.002954757639432357</v>
+        <v>0.002637099389956318</v>
       </c>
       <c r="T8">
-        <v>0.002954757639432357</v>
+        <v>0.002637099389956318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H9">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I9">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J9">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N9">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q9">
-        <v>7.663886073259717</v>
+        <v>10.70739191642866</v>
       </c>
       <c r="R9">
-        <v>7.663886073259717</v>
+        <v>96.36652724785799</v>
       </c>
       <c r="S9">
-        <v>0.0146417428450822</v>
+        <v>0.01226109629650446</v>
       </c>
       <c r="T9">
-        <v>0.0146417428450822</v>
+        <v>0.01226109629650447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H10">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I10">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J10">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N10">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O10">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P10">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q10">
-        <v>15.72597811585248</v>
+        <v>22.92376900392133</v>
       </c>
       <c r="R10">
-        <v>15.72597811585248</v>
+        <v>206.313921035292</v>
       </c>
       <c r="S10">
-        <v>0.03004425240128428</v>
+        <v>0.02625014022365698</v>
       </c>
       <c r="T10">
-        <v>0.03004425240128428</v>
+        <v>0.02625014022365698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H11">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I11">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J11">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N11">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q11">
-        <v>17.78456699340473</v>
+        <v>24.77442864092933</v>
       </c>
       <c r="R11">
-        <v>17.78456699340473</v>
+        <v>222.969857768364</v>
       </c>
       <c r="S11">
-        <v>0.03397715650251217</v>
+        <v>0.02836934125771957</v>
       </c>
       <c r="T11">
-        <v>0.03397715650251217</v>
+        <v>0.02836934125771957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H12">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I12">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J12">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N12">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q12">
-        <v>3.341275743187069</v>
+        <v>4.642934893921333</v>
       </c>
       <c r="R12">
-        <v>3.341275743187069</v>
+        <v>41.786414045292</v>
       </c>
       <c r="S12">
-        <v>0.00638345869688114</v>
+        <v>0.005316651550357909</v>
       </c>
       <c r="T12">
-        <v>0.00638345869688114</v>
+        <v>0.005316651550357909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H13">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I13">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J13">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N13">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q13">
-        <v>2.401941874165104</v>
+        <v>3.46405506601</v>
       </c>
       <c r="R13">
-        <v>2.401941874165104</v>
+        <v>31.17649559409</v>
       </c>
       <c r="S13">
-        <v>0.004588875005993117</v>
+        <v>0.00396670945382834</v>
       </c>
       <c r="T13">
-        <v>0.004588875005993117</v>
+        <v>0.003966709453828341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H14">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I14">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J14">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N14">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q14">
-        <v>13.1236194608768</v>
+        <v>1.981562632091</v>
       </c>
       <c r="R14">
-        <v>13.1236194608768</v>
+        <v>17.834063688819</v>
       </c>
       <c r="S14">
-        <v>0.02507248405131175</v>
+        <v>0.002269098809425696</v>
       </c>
       <c r="T14">
-        <v>0.02507248405131175</v>
+        <v>0.002269098809425696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H15">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I15">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J15">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N15">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q15">
-        <v>65.03161503959736</v>
+        <v>9.213202332136998</v>
       </c>
       <c r="R15">
-        <v>65.03161503959736</v>
+        <v>82.91882098923298</v>
       </c>
       <c r="S15">
-        <v>0.1242419544221084</v>
+        <v>0.01055009117768327</v>
       </c>
       <c r="T15">
-        <v>0.1242419544221084</v>
+        <v>0.01055009117768327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H16">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I16">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J16">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N16">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O16">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P16">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q16">
-        <v>133.4421917517189</v>
+        <v>19.724814753838</v>
       </c>
       <c r="R16">
-        <v>133.4421917517189</v>
+        <v>177.523332784542</v>
       </c>
       <c r="S16">
-        <v>0.2549393659608235</v>
+        <v>0.02258699924455417</v>
       </c>
       <c r="T16">
-        <v>0.2549393659608235</v>
+        <v>0.02258699924455418</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H17">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I17">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J17">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N17">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q17">
-        <v>150.9102697124386</v>
+        <v>21.317219497846</v>
       </c>
       <c r="R17">
-        <v>150.9102697124386</v>
+        <v>191.854975480614</v>
       </c>
       <c r="S17">
-        <v>0.2883118747708248</v>
+        <v>0.02441047110975558</v>
       </c>
       <c r="T17">
-        <v>0.2883118747708248</v>
+        <v>0.02441047110975558</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H18">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I18">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J18">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N18">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q18">
-        <v>28.35226878309605</v>
+        <v>3.995025018838</v>
       </c>
       <c r="R18">
-        <v>28.35226878309605</v>
+        <v>35.955225169542</v>
       </c>
       <c r="S18">
-        <v>0.05416659702773691</v>
+        <v>0.004574726212062961</v>
       </c>
       <c r="T18">
-        <v>0.05416659702773691</v>
+        <v>0.004574726212062961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.392313</v>
+      </c>
+      <c r="H19">
+        <v>1.176939</v>
+      </c>
+      <c r="I19">
+        <v>0.06780455168988127</v>
+      </c>
+      <c r="J19">
+        <v>0.06780455168988127</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.597645</v>
+      </c>
+      <c r="N19">
+        <v>22.792935</v>
+      </c>
+      <c r="O19">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P19">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q19">
+        <v>2.980654902885</v>
+      </c>
+      <c r="R19">
+        <v>26.825894125965</v>
+      </c>
+      <c r="S19">
+        <v>0.003413165136399593</v>
+      </c>
+      <c r="T19">
+        <v>0.003413165136399594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.572636</v>
+      </c>
+      <c r="I20">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J20">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N20">
+        <v>15.152921</v>
+      </c>
+      <c r="O20">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P20">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q20">
+        <v>0.9641231188617778</v>
+      </c>
+      <c r="R20">
+        <v>8.677108069756001</v>
+      </c>
+      <c r="S20">
+        <v>0.001104022949221916</v>
+      </c>
+      <c r="T20">
+        <v>0.001104022949221916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.572636</v>
+      </c>
+      <c r="I21">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J21">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N21">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P21">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q21">
+        <v>4.482654862032444</v>
+      </c>
+      <c r="R21">
+        <v>40.343893758292</v>
+      </c>
+      <c r="S21">
+        <v>0.005133113960556867</v>
+      </c>
+      <c r="T21">
+        <v>0.005133113960556867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.572636</v>
+      </c>
+      <c r="I22">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J22">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N22">
+        <v>150.834778</v>
+      </c>
+      <c r="O22">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P22">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q22">
+        <v>9.597047103867554</v>
+      </c>
+      <c r="R22">
+        <v>86.373423934808</v>
+      </c>
+      <c r="S22">
+        <v>0.01098963404170014</v>
+      </c>
+      <c r="T22">
+        <v>0.01098963404170014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.572636</v>
+      </c>
+      <c r="I23">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J23">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N23">
+        <v>163.011826</v>
+      </c>
+      <c r="O23">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P23">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q23">
+        <v>10.37182666592622</v>
+      </c>
+      <c r="R23">
+        <v>93.34643999333599</v>
+      </c>
+      <c r="S23">
+        <v>0.0118768385909601</v>
+      </c>
+      <c r="T23">
+        <v>0.01187683859096011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.572636</v>
+      </c>
+      <c r="I24">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J24">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N24">
+        <v>30.549778</v>
+      </c>
+      <c r="O24">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P24">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q24">
+        <v>1.943766963867556</v>
+      </c>
+      <c r="R24">
+        <v>17.493902674808</v>
+      </c>
+      <c r="S24">
+        <v>0.00222581877155136</v>
+      </c>
+      <c r="T24">
+        <v>0.00222581877155136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.572636</v>
+      </c>
+      <c r="I25">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J25">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.597645</v>
+      </c>
+      <c r="N25">
+        <v>22.792935</v>
+      </c>
+      <c r="O25">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P25">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q25">
+        <v>1.450228347406667</v>
+      </c>
+      <c r="R25">
+        <v>13.05205512666</v>
+      </c>
+      <c r="S25">
+        <v>0.001660664852679126</v>
+      </c>
+      <c r="T25">
+        <v>0.001660664852679126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H26">
+        <v>13.01576</v>
+      </c>
+      <c r="I26">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J26">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N26">
+        <v>15.152921</v>
+      </c>
+      <c r="O26">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P26">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q26">
+        <v>21.91408700388445</v>
+      </c>
+      <c r="R26">
+        <v>197.22678303496</v>
+      </c>
+      <c r="S26">
+        <v>0.02509394753659331</v>
+      </c>
+      <c r="T26">
+        <v>0.02509394753659331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.01576</v>
+      </c>
+      <c r="I27">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J27">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N27">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O27">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P27">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q27">
+        <v>101.8887388271911</v>
+      </c>
+      <c r="R27">
+        <v>916.9986494447199</v>
+      </c>
+      <c r="S27">
+        <v>0.1166733830273641</v>
+      </c>
+      <c r="T27">
+        <v>0.1166733830273641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.7864854800209</v>
-      </c>
-      <c r="H19">
-        <v>2.7864854800209</v>
-      </c>
-      <c r="I19">
-        <v>0.7856710013132586</v>
-      </c>
-      <c r="J19">
-        <v>0.7856710013132586</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="N19">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="O19">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="P19">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="Q19">
-        <v>20.38158681053512</v>
-      </c>
-      <c r="R19">
-        <v>20.38158681053512</v>
-      </c>
-      <c r="S19">
-        <v>0.03893872508045323</v>
-      </c>
-      <c r="T19">
-        <v>0.03893872508045323</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.01576</v>
+      </c>
+      <c r="I28">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J28">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N28">
+        <v>150.834778</v>
+      </c>
+      <c r="O28">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P28">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q28">
+        <v>218.1365855668089</v>
+      </c>
+      <c r="R28">
+        <v>1963.22927010128</v>
+      </c>
+      <c r="S28">
+        <v>0.2497894634193433</v>
+      </c>
+      <c r="T28">
+        <v>0.2497894634193433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.01576</v>
+      </c>
+      <c r="I29">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J29">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N29">
+        <v>163.011826</v>
+      </c>
+      <c r="O29">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P29">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q29">
+        <v>235.7469782641956</v>
+      </c>
+      <c r="R29">
+        <v>2121.72280437776</v>
+      </c>
+      <c r="S29">
+        <v>0.2699552257606488</v>
+      </c>
+      <c r="T29">
+        <v>0.2699552257606488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.01576</v>
+      </c>
+      <c r="I30">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J30">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N30">
+        <v>30.549778</v>
+      </c>
+      <c r="O30">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P30">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q30">
+        <v>44.1809531668089</v>
+      </c>
+      <c r="R30">
+        <v>397.62857850128</v>
+      </c>
+      <c r="S30">
+        <v>0.05059186452477199</v>
+      </c>
+      <c r="T30">
+        <v>0.05059186452477198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.01576</v>
+      </c>
+      <c r="I31">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J31">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.597645</v>
+      </c>
+      <c r="N31">
+        <v>22.792935</v>
+      </c>
+      <c r="O31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q31">
+        <v>32.96304129506667</v>
+      </c>
+      <c r="R31">
+        <v>296.6673716556</v>
+      </c>
+      <c r="S31">
+        <v>0.03774616888024306</v>
+      </c>
+      <c r="T31">
+        <v>0.03774616888024305</v>
       </c>
     </row>
   </sheetData>
